--- a/data/pca/factorExposure/factorExposure_2009-06-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-06-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.017130731274798</v>
+        <v>0.01651557048054521</v>
       </c>
       <c r="C2">
-        <v>-0.001548197133744179</v>
+        <v>-0.001090375052753764</v>
       </c>
       <c r="D2">
-        <v>-0.009391967236700936</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.009075463076101927</v>
+      </c>
+      <c r="E2">
+        <v>0.001610108023454663</v>
+      </c>
+      <c r="F2">
+        <v>-0.01204446429013803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08962410169719061</v>
+        <v>0.09178217176095069</v>
       </c>
       <c r="C4">
-        <v>-0.02000938760359465</v>
+        <v>-0.01517785681873431</v>
       </c>
       <c r="D4">
-        <v>-0.07714494158041689</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08185925532998294</v>
+      </c>
+      <c r="E4">
+        <v>0.02762234770310289</v>
+      </c>
+      <c r="F4">
+        <v>0.03285553846936468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>6.73768416101312e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-8.105287505589251e-06</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>9.85349525836668e-05</v>
+      </c>
+      <c r="E5">
+        <v>-3.11230702434162e-05</v>
+      </c>
+      <c r="F5">
+        <v>-7.379553606278838e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1531762778135505</v>
+        <v>0.1616419297787682</v>
       </c>
       <c r="C6">
-        <v>-0.0302651061384885</v>
+        <v>-0.02950127120542778</v>
       </c>
       <c r="D6">
-        <v>0.0355938559883105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02607155317089365</v>
+      </c>
+      <c r="E6">
+        <v>0.008933696133225387</v>
+      </c>
+      <c r="F6">
+        <v>0.0405932923857514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.0603856129246424</v>
+        <v>0.06251949332224985</v>
       </c>
       <c r="C7">
-        <v>-0.002017121103872345</v>
+        <v>0.001273349595687098</v>
       </c>
       <c r="D7">
-        <v>-0.04834719340196104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05363788445951374</v>
+      </c>
+      <c r="E7">
+        <v>0.01543748127879361</v>
+      </c>
+      <c r="F7">
+        <v>0.04978259994072565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06118634957779178</v>
+        <v>0.05683955790939922</v>
       </c>
       <c r="C8">
-        <v>0.01012157274250605</v>
+        <v>0.01198217458143933</v>
       </c>
       <c r="D8">
-        <v>-0.02576355786097745</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03020389361966217</v>
+      </c>
+      <c r="E8">
+        <v>0.01772461334379783</v>
+      </c>
+      <c r="F8">
+        <v>-0.02821894906647969</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06968198130453873</v>
+        <v>0.07134759816597391</v>
       </c>
       <c r="C9">
-        <v>-0.01598659776374268</v>
+        <v>-0.0107277653442643</v>
       </c>
       <c r="D9">
-        <v>-0.07980947330707239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.0856751354408236</v>
+      </c>
+      <c r="E9">
+        <v>0.02474340680484153</v>
+      </c>
+      <c r="F9">
+        <v>0.04945200267512481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08531676694171923</v>
+        <v>0.08696398645907563</v>
       </c>
       <c r="C10">
-        <v>-0.01620191174141439</v>
+        <v>-0.02173103683411735</v>
       </c>
       <c r="D10">
-        <v>0.1666055084159855</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.159610566890365</v>
+      </c>
+      <c r="E10">
+        <v>-0.03198738909819148</v>
+      </c>
+      <c r="F10">
+        <v>-0.05883449715659509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09082606498359151</v>
+        <v>0.0876261012816603</v>
       </c>
       <c r="C11">
-        <v>-0.0172028701200897</v>
+        <v>-0.01189206623860782</v>
       </c>
       <c r="D11">
-        <v>-0.1113715529532515</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1179161575519854</v>
+      </c>
+      <c r="E11">
+        <v>0.04981171925004577</v>
+      </c>
+      <c r="F11">
+        <v>0.02656049854131378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09662889117548978</v>
+        <v>0.09054412594524641</v>
       </c>
       <c r="C12">
-        <v>-0.01550254485313569</v>
+        <v>-0.009324243892801027</v>
       </c>
       <c r="D12">
-        <v>-0.118247649880137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.132900469323604</v>
+      </c>
+      <c r="E12">
+        <v>0.04918209555485496</v>
+      </c>
+      <c r="F12">
+        <v>0.03282826005651394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04460865899350357</v>
+        <v>0.04353295535772221</v>
       </c>
       <c r="C13">
-        <v>-0.006601699415817755</v>
+        <v>-0.002751471087225852</v>
       </c>
       <c r="D13">
-        <v>-0.04449240318497379</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05411047788728051</v>
+      </c>
+      <c r="E13">
+        <v>-0.0002401559421235367</v>
+      </c>
+      <c r="F13">
+        <v>0.004753642733062246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01965939934892834</v>
+        <v>0.0233976217495632</v>
       </c>
       <c r="C14">
-        <v>-0.01524218439547505</v>
+        <v>-0.01396899022750627</v>
       </c>
       <c r="D14">
-        <v>-0.03134644204048051</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03247753916066034</v>
+      </c>
+      <c r="E14">
+        <v>0.01998747841035048</v>
+      </c>
+      <c r="F14">
+        <v>0.0126047205187096</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03449185753967461</v>
+        <v>0.03446051232867169</v>
       </c>
       <c r="C15">
-        <v>-0.007613956592263096</v>
+        <v>-0.005775161512165779</v>
       </c>
       <c r="D15">
-        <v>-0.04579417350944304</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04675445768684082</v>
+      </c>
+      <c r="E15">
+        <v>0.008837739033127642</v>
+      </c>
+      <c r="F15">
+        <v>0.0299907007449218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07514807061657336</v>
+        <v>0.07244530139371379</v>
       </c>
       <c r="C16">
-        <v>-0.007642567147295059</v>
+        <v>-0.001935187524117253</v>
       </c>
       <c r="D16">
-        <v>-0.1149444849035782</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1290114814446614</v>
+      </c>
+      <c r="E16">
+        <v>0.06388595294175037</v>
+      </c>
+      <c r="F16">
+        <v>0.02948156434804547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.001114004925238052</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0003612855835932573</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.001979626310178114</v>
+      </c>
+      <c r="E17">
+        <v>0.001523387749887656</v>
+      </c>
+      <c r="F17">
+        <v>-0.00227635162893751</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02458756658047323</v>
+        <v>0.0420694138421662</v>
       </c>
       <c r="C18">
-        <v>0.001909085944170567</v>
+        <v>0.001981191140969368</v>
       </c>
       <c r="D18">
-        <v>-0.02240337847499906</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01592942872372024</v>
+      </c>
+      <c r="E18">
+        <v>-0.005666073365822246</v>
+      </c>
+      <c r="F18">
+        <v>-0.009015459698573616</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06392827703831377</v>
+        <v>0.06235506383715989</v>
       </c>
       <c r="C20">
-        <v>-0.005309457086232546</v>
+        <v>-0.001319873451935899</v>
       </c>
       <c r="D20">
-        <v>-0.07259217831411767</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07916759766788511</v>
+      </c>
+      <c r="E20">
+        <v>0.0608784561631124</v>
+      </c>
+      <c r="F20">
+        <v>0.03105025672757561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04130940175988865</v>
+        <v>0.04265544843429357</v>
       </c>
       <c r="C21">
-        <v>-0.009927125909205142</v>
+        <v>-0.00717803596342253</v>
       </c>
       <c r="D21">
-        <v>-0.03254822579789263</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03554884610253482</v>
+      </c>
+      <c r="E21">
+        <v>0.001271364143129334</v>
+      </c>
+      <c r="F21">
+        <v>-0.02411335434225653</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04094515772042235</v>
+        <v>0.04276660799084583</v>
       </c>
       <c r="C22">
-        <v>-0.001354059161553794</v>
+        <v>-0.001049228169164708</v>
       </c>
       <c r="D22">
-        <v>-0.001106362411334882</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.007198989096414278</v>
+      </c>
+      <c r="E22">
+        <v>0.03703416680865271</v>
+      </c>
+      <c r="F22">
+        <v>-0.0483121971577383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04090045736430921</v>
+        <v>0.04273591415007742</v>
       </c>
       <c r="C23">
-        <v>-0.001340530570527062</v>
+        <v>-0.001037752006184803</v>
       </c>
       <c r="D23">
-        <v>-0.001135180504124236</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.007213734657170268</v>
+      </c>
+      <c r="E23">
+        <v>0.03706240263340473</v>
+      </c>
+      <c r="F23">
+        <v>-0.04836589167679216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08241733669214846</v>
+        <v>0.0783997663925004</v>
       </c>
       <c r="C24">
-        <v>-0.008299512694610376</v>
+        <v>-0.002810160247147955</v>
       </c>
       <c r="D24">
-        <v>-0.115266102549637</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1210310604146865</v>
+      </c>
+      <c r="E24">
+        <v>0.05150861008934315</v>
+      </c>
+      <c r="F24">
+        <v>0.03224130055411279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08689234720043836</v>
+        <v>0.08334539333068139</v>
       </c>
       <c r="C25">
-        <v>-0.01053825995689318</v>
+        <v>-0.00555312912820737</v>
       </c>
       <c r="D25">
-        <v>-0.1032051656730948</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1101888033423617</v>
+      </c>
+      <c r="E25">
+        <v>0.03427171106422305</v>
+      </c>
+      <c r="F25">
+        <v>0.02909476805856507</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05789186231174985</v>
+        <v>0.06071022815501097</v>
       </c>
       <c r="C26">
-        <v>-0.01818480185793</v>
+        <v>-0.01497549242763226</v>
       </c>
       <c r="D26">
-        <v>-0.03471855937301893</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04452628274310202</v>
+      </c>
+      <c r="E26">
+        <v>0.03189097535108992</v>
+      </c>
+      <c r="F26">
+        <v>-0.006541554246675086</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1339797807013762</v>
+        <v>0.1430127968434394</v>
       </c>
       <c r="C28">
-        <v>-0.01540291167958751</v>
+        <v>-0.02366957730559756</v>
       </c>
       <c r="D28">
-        <v>0.2656444621838551</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2594324547516318</v>
+      </c>
+      <c r="E28">
+        <v>-0.06596243352985348</v>
+      </c>
+      <c r="F28">
+        <v>0.00476595100025146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02612572179553798</v>
+        <v>0.02864892699807373</v>
       </c>
       <c r="C29">
-        <v>-0.01003873958854966</v>
+        <v>-0.009217602550505372</v>
       </c>
       <c r="D29">
-        <v>-0.02904212474729271</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02979699260012431</v>
+      </c>
+      <c r="E29">
+        <v>0.0175377391087129</v>
+      </c>
+      <c r="F29">
+        <v>-0.01271057596049507</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05838406108442417</v>
+        <v>0.05554049512557917</v>
       </c>
       <c r="C30">
-        <v>-0.007543020072220334</v>
+        <v>-0.002482243615945828</v>
       </c>
       <c r="D30">
-        <v>-0.07949617795173229</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08732447655703858</v>
+      </c>
+      <c r="E30">
+        <v>0.01257221490678905</v>
+      </c>
+      <c r="F30">
+        <v>0.07922347376599331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05074576042958281</v>
+        <v>0.05106297227878127</v>
       </c>
       <c r="C31">
-        <v>-0.0175977855879805</v>
+        <v>-0.01629972117350846</v>
       </c>
       <c r="D31">
-        <v>-0.02144149958656342</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02423354076271525</v>
+      </c>
+      <c r="E31">
+        <v>0.02910624680631656</v>
+      </c>
+      <c r="F31">
+        <v>-0.0005659596875974473</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04813041726791273</v>
+        <v>0.05171659474381558</v>
       </c>
       <c r="C32">
-        <v>-0.00222200655974268</v>
+        <v>0.00112390428084543</v>
       </c>
       <c r="D32">
-        <v>-0.02852405683737718</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03369872395367893</v>
+      </c>
+      <c r="E32">
+        <v>0.03474814737646127</v>
+      </c>
+      <c r="F32">
+        <v>0.002929582390751735</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09065503773712136</v>
+        <v>0.09003900741228975</v>
       </c>
       <c r="C33">
-        <v>-0.01367247967418257</v>
+        <v>-0.00773076138849943</v>
       </c>
       <c r="D33">
-        <v>-0.0903334803584282</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1040820263862755</v>
+      </c>
+      <c r="E33">
+        <v>0.04700810970883905</v>
+      </c>
+      <c r="F33">
+        <v>0.04461584404184865</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06914203927932215</v>
+        <v>0.06726895216534727</v>
       </c>
       <c r="C34">
-        <v>-0.01571332243171313</v>
+        <v>-0.01093003753907599</v>
       </c>
       <c r="D34">
-        <v>-0.09679974311192532</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1087557933058622</v>
+      </c>
+      <c r="E34">
+        <v>0.03715984627297641</v>
+      </c>
+      <c r="F34">
+        <v>0.03629063658430193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02554166767915731</v>
+        <v>0.02703028136240743</v>
       </c>
       <c r="C35">
-        <v>-0.003982860808628084</v>
+        <v>-0.003464345131263941</v>
       </c>
       <c r="D35">
-        <v>-0.008173526755510422</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01154502867900649</v>
+      </c>
+      <c r="E35">
+        <v>0.0151362503497929</v>
+      </c>
+      <c r="F35">
+        <v>0.0006508732558216365</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02526349242841856</v>
+        <v>0.02881074450482888</v>
       </c>
       <c r="C36">
-        <v>-0.008244677248941235</v>
+        <v>-0.007147513484269169</v>
       </c>
       <c r="D36">
-        <v>-0.03837466070481221</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03967579056155347</v>
+      </c>
+      <c r="E36">
+        <v>0.01887146172349113</v>
+      </c>
+      <c r="F36">
+        <v>0.01556964137754306</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001906446641776459</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0006493435388725591</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.002905472171100837</v>
+      </c>
+      <c r="E37">
+        <v>0.0001248587030875163</v>
+      </c>
+      <c r="F37">
+        <v>-0.001668314755628066</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1107622059939927</v>
+        <v>0.09968747221684549</v>
       </c>
       <c r="C39">
-        <v>-0.02310684576742109</v>
+        <v>-0.01662613299610413</v>
       </c>
       <c r="D39">
-        <v>-0.1482317355063391</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.15165392744398</v>
+      </c>
+      <c r="E39">
+        <v>0.06097917678277185</v>
+      </c>
+      <c r="F39">
+        <v>0.0227457317647235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03888666964580306</v>
+        <v>0.04404221328183524</v>
       </c>
       <c r="C40">
-        <v>-0.009516015858014622</v>
+        <v>-0.00804695314684328</v>
       </c>
       <c r="D40">
-        <v>-0.02347201022403504</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03269127591970027</v>
+      </c>
+      <c r="E40">
+        <v>0.002933882806672198</v>
+      </c>
+      <c r="F40">
+        <v>-0.01521751419024618</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02449983342932185</v>
+        <v>0.02648642990113085</v>
       </c>
       <c r="C41">
-        <v>-0.00743009876070984</v>
+        <v>-0.006840071260402123</v>
       </c>
       <c r="D41">
-        <v>-0.007834038394087419</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.009780946456194355</v>
+      </c>
+      <c r="E41">
+        <v>0.01253385478358703</v>
+      </c>
+      <c r="F41">
+        <v>-0.007332214936346829</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04153852949845831</v>
+        <v>0.03980070283661334</v>
       </c>
       <c r="C43">
-        <v>-0.008518626307587361</v>
+        <v>-0.007815307682707339</v>
       </c>
       <c r="D43">
-        <v>-0.01666252702007716</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01897917589498248</v>
+      </c>
+      <c r="E43">
+        <v>0.02636276800365691</v>
+      </c>
+      <c r="F43">
+        <v>-0.01592519013918122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06837604006835592</v>
+        <v>0.07786683834111181</v>
       </c>
       <c r="C44">
-        <v>-0.02436840591375042</v>
+        <v>-0.02024300314918559</v>
       </c>
       <c r="D44">
-        <v>-0.09481508037968113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0959772752136628</v>
+      </c>
+      <c r="E44">
+        <v>0.06218940141763388</v>
+      </c>
+      <c r="F44">
+        <v>0.1689180652302959</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02168791575490682</v>
+        <v>0.02419025893263646</v>
       </c>
       <c r="C46">
-        <v>-0.004571582332059214</v>
+        <v>-0.003744264710309507</v>
       </c>
       <c r="D46">
-        <v>-0.008127526311162944</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01197941050298926</v>
+      </c>
+      <c r="E46">
+        <v>0.02998646468104614</v>
+      </c>
+      <c r="F46">
+        <v>-0.004424146090549999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05368914755653385</v>
+        <v>0.05287350441698521</v>
       </c>
       <c r="C47">
-        <v>-0.00562273918433213</v>
+        <v>-0.004689100489300223</v>
       </c>
       <c r="D47">
-        <v>-0.007156647177378618</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01092438564427378</v>
+      </c>
+      <c r="E47">
+        <v>0.02417874414929876</v>
+      </c>
+      <c r="F47">
+        <v>-0.03132037268869218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04841834609568337</v>
+        <v>0.0511018749176015</v>
       </c>
       <c r="C48">
-        <v>-0.005222847339145532</v>
+        <v>-0.002538778514159035</v>
       </c>
       <c r="D48">
-        <v>-0.04708739255182998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05003335822217548</v>
+      </c>
+      <c r="E48">
+        <v>-0.003584701418744491</v>
+      </c>
+      <c r="F48">
+        <v>0.01290564131922506</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1983753350883322</v>
+        <v>0.1998903514400847</v>
       </c>
       <c r="C49">
-        <v>-0.02339243157977488</v>
+        <v>-0.02147318358167219</v>
       </c>
       <c r="D49">
-        <v>0.0126581923111671</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.004351784412129613</v>
+      </c>
+      <c r="E49">
+        <v>0.03043228956147888</v>
+      </c>
+      <c r="F49">
+        <v>0.04987822613301398</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.0493069965796406</v>
+        <v>0.05114908822326848</v>
       </c>
       <c r="C50">
-        <v>-0.01323593067547267</v>
+        <v>-0.01189587935563163</v>
       </c>
       <c r="D50">
-        <v>-0.02081748566239296</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02364453230996207</v>
+      </c>
+      <c r="E50">
+        <v>0.03151172271445883</v>
+      </c>
+      <c r="F50">
+        <v>0.009877653982318308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1548742732048237</v>
+        <v>0.1479718195844513</v>
       </c>
       <c r="C52">
-        <v>-0.02144740277647265</v>
+        <v>-0.01944819618557558</v>
       </c>
       <c r="D52">
-        <v>-0.041946141756711</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04283054156314191</v>
+      </c>
+      <c r="E52">
+        <v>0.02030566536892532</v>
+      </c>
+      <c r="F52">
+        <v>0.04175432912266769</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1742849444867632</v>
+        <v>0.1685999353751831</v>
       </c>
       <c r="C53">
-        <v>-0.02252733933803048</v>
+        <v>-0.02260882350277406</v>
       </c>
       <c r="D53">
-        <v>-0.005925241272766522</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.006239854982220026</v>
+      </c>
+      <c r="E53">
+        <v>0.02701807511884637</v>
+      </c>
+      <c r="F53">
+        <v>0.07485661238042145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01745330741532299</v>
+        <v>0.01966831501326189</v>
       </c>
       <c r="C54">
-        <v>-0.01227601496601229</v>
+        <v>-0.01115929612168684</v>
       </c>
       <c r="D54">
-        <v>-0.03021279571747818</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03040012115272227</v>
+      </c>
+      <c r="E54">
+        <v>0.02221258836752888</v>
+      </c>
+      <c r="F54">
+        <v>-0.002267236838407875</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1185409147749487</v>
+        <v>0.1167531236303606</v>
       </c>
       <c r="C55">
-        <v>-0.01993988478305169</v>
+        <v>-0.01993434106258141</v>
       </c>
       <c r="D55">
-        <v>-0.004746973957477577</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008507232008971941</v>
+      </c>
+      <c r="E55">
+        <v>0.02594764543472882</v>
+      </c>
+      <c r="F55">
+        <v>0.04646229424564409</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1809901017504276</v>
+        <v>0.1760063493560656</v>
       </c>
       <c r="C56">
-        <v>-0.02073822043008644</v>
+        <v>-0.02098541539792522</v>
       </c>
       <c r="D56">
-        <v>0.006272465356072748</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.002300372540915458</v>
+      </c>
+      <c r="E56">
+        <v>0.03141574744923292</v>
+      </c>
+      <c r="F56">
+        <v>0.05550982106568174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04726935534985298</v>
+        <v>0.04574845243855062</v>
       </c>
       <c r="C58">
-        <v>-0.005230931787282644</v>
+        <v>-0.0003297533463012705</v>
       </c>
       <c r="D58">
-        <v>-0.06567727967921484</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07615052251036461</v>
+      </c>
+      <c r="E58">
+        <v>0.03499733448855857</v>
+      </c>
+      <c r="F58">
+        <v>-0.03731061997261663</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1597497681859806</v>
+        <v>0.1664227724096247</v>
       </c>
       <c r="C59">
-        <v>-0.01706838003705921</v>
+        <v>-0.02387586909348939</v>
       </c>
       <c r="D59">
-        <v>0.2246709489571099</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2172087516680756</v>
+      </c>
+      <c r="E59">
+        <v>-0.04956156613622029</v>
+      </c>
+      <c r="F59">
+        <v>-0.04127839091135394</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2376279480214526</v>
+        <v>0.2297921864371131</v>
       </c>
       <c r="C60">
-        <v>-0.004650978235492062</v>
+        <v>-0.001599253904261749</v>
       </c>
       <c r="D60">
-        <v>-0.0362104317468286</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.03857283328673777</v>
+      </c>
+      <c r="E60">
+        <v>0.001207804690566286</v>
+      </c>
+      <c r="F60">
+        <v>0.006058611743968453</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.08107428640306341</v>
+        <v>0.07425659196139056</v>
       </c>
       <c r="C61">
-        <v>-0.01677219912718791</v>
+        <v>-0.01129605399963566</v>
       </c>
       <c r="D61">
-        <v>-0.1105548614499913</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1168029565720166</v>
+      </c>
+      <c r="E61">
+        <v>0.03862741725230477</v>
+      </c>
+      <c r="F61">
+        <v>0.008077866526533932</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1729657133076699</v>
+        <v>0.1691390679126784</v>
       </c>
       <c r="C62">
-        <v>-0.02440624296187051</v>
+        <v>-0.02357826943703722</v>
       </c>
       <c r="D62">
-        <v>-0.0008799761140083703</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.006657305731328364</v>
+      </c>
+      <c r="E62">
+        <v>0.03368436196651171</v>
+      </c>
+      <c r="F62">
+        <v>0.04135391611550702</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04151301443067155</v>
+        <v>0.04577718422065523</v>
       </c>
       <c r="C63">
-        <v>-0.005553787692071761</v>
+        <v>-0.00217196335541745</v>
       </c>
       <c r="D63">
-        <v>-0.04945638031658665</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06002119641981559</v>
+      </c>
+      <c r="E63">
+        <v>0.02403653089184486</v>
+      </c>
+      <c r="F63">
+        <v>0.001228796883520664</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1141991013677503</v>
+        <v>0.1110335119121618</v>
       </c>
       <c r="C64">
-        <v>-0.01674221484873905</v>
+        <v>-0.01350679600751118</v>
       </c>
       <c r="D64">
-        <v>-0.03350693437237039</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04165874745555697</v>
+      </c>
+      <c r="E64">
+        <v>0.02471455930325391</v>
+      </c>
+      <c r="F64">
+        <v>0.02766605905596882</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1447141095872688</v>
+        <v>0.1518751112146169</v>
       </c>
       <c r="C65">
-        <v>-0.03657001625360472</v>
+        <v>-0.03629564523601066</v>
       </c>
       <c r="D65">
-        <v>0.05781431044774557</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04570649779093788</v>
+      </c>
+      <c r="E65">
+        <v>0.004310216129638191</v>
+      </c>
+      <c r="F65">
+        <v>0.03773970317844802</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1331278076153271</v>
+        <v>0.1195451630900628</v>
       </c>
       <c r="C66">
-        <v>-0.02152037485081002</v>
+        <v>-0.01484440280136611</v>
       </c>
       <c r="D66">
-        <v>-0.131499949567049</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1409919313101921</v>
+      </c>
+      <c r="E66">
+        <v>0.06512151322805597</v>
+      </c>
+      <c r="F66">
+        <v>0.02853694421317696</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06339997880210538</v>
+        <v>0.05612530495002391</v>
       </c>
       <c r="C67">
-        <v>-0.006285908747440771</v>
+        <v>-0.003954505996011689</v>
       </c>
       <c r="D67">
-        <v>-0.05516514184010413</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.0585565880278822</v>
+      </c>
+      <c r="E67">
+        <v>0.02099955906086828</v>
+      </c>
+      <c r="F67">
+        <v>-0.03427436455703088</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1073991827723877</v>
+        <v>0.1174284807677788</v>
       </c>
       <c r="C68">
-        <v>-0.02549733946298906</v>
+        <v>-0.03447150917401356</v>
       </c>
       <c r="D68">
-        <v>0.264173311885424</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2609085003207981</v>
+      </c>
+      <c r="E68">
+        <v>-0.08775843450860285</v>
+      </c>
+      <c r="F68">
+        <v>0.0005679439865714328</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03842628568107706</v>
+        <v>0.03753234155296854</v>
       </c>
       <c r="C69">
-        <v>-0.002190981995540068</v>
+        <v>-0.001330169554360711</v>
       </c>
       <c r="D69">
-        <v>-0.006820180784432705</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.00835455980620591</v>
+      </c>
+      <c r="E69">
+        <v>0.02572089153353382</v>
+      </c>
+      <c r="F69">
+        <v>8.69588498427101e-05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06714185071928942</v>
+        <v>0.06702140824488928</v>
       </c>
       <c r="C70">
-        <v>0.02428847785508169</v>
+        <v>0.02645294061444993</v>
       </c>
       <c r="D70">
-        <v>-0.02203593789175663</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.0270571897262847</v>
+      </c>
+      <c r="E70">
+        <v>-0.02440067702299674</v>
+      </c>
+      <c r="F70">
+        <v>-0.1827337275970364</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1260878920634928</v>
+        <v>0.1374428046164059</v>
       </c>
       <c r="C71">
-        <v>-0.03020731325889424</v>
+        <v>-0.03912020046802023</v>
       </c>
       <c r="D71">
-        <v>0.28016320304905</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2704371670074994</v>
+      </c>
+      <c r="E71">
+        <v>-0.09789313638464484</v>
+      </c>
+      <c r="F71">
+        <v>0.005850015545578268</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.137295586307146</v>
+        <v>0.1441518244876241</v>
       </c>
       <c r="C72">
-        <v>-0.02907558700765399</v>
+        <v>-0.02942105802118014</v>
       </c>
       <c r="D72">
-        <v>-3.559709955557573e-05</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.003432075016186778</v>
+      </c>
+      <c r="E72">
+        <v>0.03956810872634604</v>
+      </c>
+      <c r="F72">
+        <v>0.02809271190362422</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2028529390447482</v>
+        <v>0.2037320612703825</v>
       </c>
       <c r="C73">
-        <v>-0.01841904538411585</v>
+        <v>-0.01479947760910398</v>
       </c>
       <c r="D73">
-        <v>-0.007694306083694298</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01787924556609711</v>
+      </c>
+      <c r="E73">
+        <v>0.06395289552003271</v>
+      </c>
+      <c r="F73">
+        <v>0.0443524650155077</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09158906711292041</v>
+        <v>0.09252655645216133</v>
       </c>
       <c r="C74">
-        <v>-0.0148275876178558</v>
+        <v>-0.0142822427353075</v>
       </c>
       <c r="D74">
-        <v>-0.01451224267854145</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01692865802011442</v>
+      </c>
+      <c r="E74">
+        <v>0.04197292640761082</v>
+      </c>
+      <c r="F74">
+        <v>0.0524909051822759</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1333314135814787</v>
+        <v>0.1256928988978814</v>
       </c>
       <c r="C75">
-        <v>-0.03211531401817266</v>
+        <v>-0.03030544107239478</v>
       </c>
       <c r="D75">
-        <v>-0.02417061046967644</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02996743636724366</v>
+      </c>
+      <c r="E75">
+        <v>0.05573659385447939</v>
+      </c>
+      <c r="F75">
+        <v>0.02175795249379208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08172189416708937</v>
+        <v>0.09213315318027936</v>
       </c>
       <c r="C77">
-        <v>-0.01435577327750991</v>
+        <v>-0.008986448371481598</v>
       </c>
       <c r="D77">
-        <v>-0.1136833500650365</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1171084196263949</v>
+      </c>
+      <c r="E77">
+        <v>0.04722452134847342</v>
+      </c>
+      <c r="F77">
+        <v>0.03692403639982592</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.101137391904838</v>
+        <v>0.1012387554507865</v>
       </c>
       <c r="C78">
-        <v>-0.04444591907964181</v>
+        <v>-0.0401669360946829</v>
       </c>
       <c r="D78">
-        <v>-0.1129615196635417</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1126053273566481</v>
+      </c>
+      <c r="E78">
+        <v>0.07440758799496378</v>
+      </c>
+      <c r="F78">
+        <v>0.05350270044632888</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1665854593487</v>
+        <v>0.1634172943555074</v>
       </c>
       <c r="C79">
-        <v>-0.0270541170995374</v>
+        <v>-0.02596740374208297</v>
       </c>
       <c r="D79">
-        <v>-0.006700596355937282</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01229325132179524</v>
+      </c>
+      <c r="E79">
+        <v>0.04327531525871894</v>
+      </c>
+      <c r="F79">
+        <v>0.01323151557712714</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08134597538244363</v>
+        <v>0.07971792655212047</v>
       </c>
       <c r="C80">
-        <v>-0.002840220544596718</v>
+        <v>3.270554007876174e-05</v>
       </c>
       <c r="D80">
-        <v>-0.05310481291161729</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05400891739753171</v>
+      </c>
+      <c r="E80">
+        <v>0.03625164057250289</v>
+      </c>
+      <c r="F80">
+        <v>-0.02721495936120006</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1206100582327631</v>
+        <v>0.1156914217084598</v>
       </c>
       <c r="C81">
-        <v>-0.03412586936135113</v>
+        <v>-0.03373018303775256</v>
       </c>
       <c r="D81">
-        <v>-0.00843495514221407</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01243959211748478</v>
+      </c>
+      <c r="E81">
+        <v>0.05260077352972586</v>
+      </c>
+      <c r="F81">
+        <v>0.0183251895039627</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1660560783924043</v>
+        <v>0.1648787275321006</v>
       </c>
       <c r="C82">
-        <v>-0.02763438746787657</v>
+        <v>-0.02820438578754807</v>
       </c>
       <c r="D82">
-        <v>-0.006653966431256249</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.003624068222439784</v>
+      </c>
+      <c r="E82">
+        <v>0.02552743287885431</v>
+      </c>
+      <c r="F82">
+        <v>0.08275700348952941</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06326601596941366</v>
+        <v>0.05708047599883558</v>
       </c>
       <c r="C83">
-        <v>-0.006155411877364235</v>
+        <v>-0.003847135067041603</v>
       </c>
       <c r="D83">
-        <v>-0.04223479108122685</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04595596996400682</v>
+      </c>
+      <c r="E83">
+        <v>0.003201930736284162</v>
+      </c>
+      <c r="F83">
+        <v>-0.03756442318693845</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06031555656950926</v>
+        <v>0.05504429069056745</v>
       </c>
       <c r="C84">
-        <v>-0.01362293185053414</v>
+        <v>-0.01090710285181417</v>
       </c>
       <c r="D84">
-        <v>-0.0703846278376441</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07331381253841854</v>
+      </c>
+      <c r="E84">
+        <v>0.01190406696415518</v>
+      </c>
+      <c r="F84">
+        <v>0.01486884058056309</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1400573952128952</v>
+        <v>0.1352815875838297</v>
       </c>
       <c r="C85">
-        <v>-0.03120100719433117</v>
+        <v>-0.03079336572276639</v>
       </c>
       <c r="D85">
-        <v>-0.006954400314967245</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009594428642976768</v>
+      </c>
+      <c r="E85">
+        <v>0.0352322988964534</v>
+      </c>
+      <c r="F85">
+        <v>0.04892833180440698</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1007917338392422</v>
+        <v>0.09331561978476365</v>
       </c>
       <c r="C86">
-        <v>0.001807135660137402</v>
+        <v>0.00508532748367012</v>
       </c>
       <c r="D86">
-        <v>-0.01618214537120359</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05232107472764095</v>
+      </c>
+      <c r="E86">
+        <v>0.2345950086063419</v>
+      </c>
+      <c r="F86">
+        <v>-0.894291246594085</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.09585579298980211</v>
+        <v>0.09200924594623744</v>
       </c>
       <c r="C87">
-        <v>-0.02853047313767358</v>
+        <v>-0.02039122665957718</v>
       </c>
       <c r="D87">
-        <v>-0.07161809000544787</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09289145666499543</v>
+      </c>
+      <c r="E87">
+        <v>-0.05360335268089819</v>
+      </c>
+      <c r="F87">
+        <v>0.04813004703695144</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06253246813775472</v>
+        <v>0.06083574756207291</v>
       </c>
       <c r="C88">
-        <v>-0.005842626106354299</v>
+        <v>-0.002927474009991219</v>
       </c>
       <c r="D88">
-        <v>-0.04907438116258212</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04961211363953257</v>
+      </c>
+      <c r="E88">
+        <v>0.02504227097814416</v>
+      </c>
+      <c r="F88">
+        <v>0.01420945228622723</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1182660853262613</v>
+        <v>0.1274173543475141</v>
       </c>
       <c r="C89">
-        <v>-0.006416374370965695</v>
+        <v>-0.01455495651089529</v>
       </c>
       <c r="D89">
-        <v>0.2410231396028314</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2420891978283557</v>
+      </c>
+      <c r="E89">
+        <v>-0.0893893469458053</v>
+      </c>
+      <c r="F89">
+        <v>-0.008413510902262585</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1387213535847813</v>
+        <v>0.1530712243675231</v>
       </c>
       <c r="C90">
-        <v>-0.02661605448892925</v>
+        <v>-0.03594350416716221</v>
       </c>
       <c r="D90">
-        <v>0.266443726591464</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2671001724008489</v>
+      </c>
+      <c r="E90">
+        <v>-0.1133265389796225</v>
+      </c>
+      <c r="F90">
+        <v>-0.009337577462158225</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1215425690715484</v>
+        <v>0.1196888943260432</v>
       </c>
       <c r="C91">
-        <v>-0.02178123330988028</v>
+        <v>-0.02198295150629018</v>
       </c>
       <c r="D91">
-        <v>0.02041628604934984</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01717358733265167</v>
+      </c>
+      <c r="E91">
+        <v>0.05354102745176184</v>
+      </c>
+      <c r="F91">
+        <v>-0.001303854170688584</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1389294873480254</v>
+        <v>0.1455553508784286</v>
       </c>
       <c r="C92">
-        <v>-0.01732319743811925</v>
+        <v>-0.02685385210192286</v>
       </c>
       <c r="D92">
-        <v>0.2975931315503515</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2929798494846648</v>
+      </c>
+      <c r="E92">
+        <v>-0.1013787427257818</v>
+      </c>
+      <c r="F92">
+        <v>-0.01908217116942496</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1417006833704608</v>
+        <v>0.1544498922651475</v>
       </c>
       <c r="C93">
-        <v>-0.02275168783733626</v>
+        <v>-0.03104621688634661</v>
       </c>
       <c r="D93">
-        <v>0.2651409802019149</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2633843340946326</v>
+      </c>
+      <c r="E93">
+        <v>-0.07370251385101897</v>
+      </c>
+      <c r="F93">
+        <v>0.003022837151345193</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1333816806479821</v>
+        <v>0.1257759200128619</v>
       </c>
       <c r="C94">
-        <v>-0.02856554377332007</v>
+        <v>-0.02635947709503891</v>
       </c>
       <c r="D94">
-        <v>-0.03923023177856558</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04157046491085333</v>
+      </c>
+      <c r="E94">
+        <v>0.05728997040468745</v>
+      </c>
+      <c r="F94">
+        <v>0.03222275220661782</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1284758548701939</v>
+        <v>0.1308417504982873</v>
       </c>
       <c r="C95">
-        <v>-0.01114315646111374</v>
+        <v>-0.005787288152202971</v>
       </c>
       <c r="D95">
-        <v>-0.08751398669370859</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09849172978013994</v>
+      </c>
+      <c r="E95">
+        <v>0.05914065412555607</v>
+      </c>
+      <c r="F95">
+        <v>0.003103779377923876</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1306610840522165</v>
+        <v>0.1236561740046182</v>
       </c>
       <c r="C96">
-        <v>0.9857362645957756</v>
+        <v>0.9856107772368311</v>
       </c>
       <c r="D96">
-        <v>0.01919771522183162</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05033896063452494</v>
+      </c>
+      <c r="E96">
+        <v>0.05033459372219278</v>
+      </c>
+      <c r="F96">
+        <v>0.04296690022601787</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1931097314493118</v>
+        <v>0.1964119762937683</v>
       </c>
       <c r="C97">
-        <v>0.002250707093354502</v>
+        <v>0.002379258576843306</v>
       </c>
       <c r="D97">
-        <v>0.03133316068907652</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.03023327007754142</v>
+      </c>
+      <c r="E97">
+        <v>0.03148996606317887</v>
+      </c>
+      <c r="F97">
+        <v>-0.1192557863713711</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2004739667380499</v>
+        <v>0.2061220922975907</v>
       </c>
       <c r="C98">
-        <v>-0.01347139599392286</v>
+        <v>-0.009619888740305766</v>
       </c>
       <c r="D98">
-        <v>-0.01187743074593045</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.0139013782321866</v>
+      </c>
+      <c r="E98">
+        <v>-0.07758479187474332</v>
+      </c>
+      <c r="F98">
+        <v>-0.09540005666536061</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05626086953777652</v>
+        <v>0.05554635702390988</v>
       </c>
       <c r="C99">
-        <v>0.001453558232083194</v>
+        <v>0.003522066887412116</v>
       </c>
       <c r="D99">
-        <v>-0.03239100886910901</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.03963873923990062</v>
+      </c>
+      <c r="E99">
+        <v>0.02309592999306175</v>
+      </c>
+      <c r="F99">
+        <v>0.003523803396042409</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1474745581134815</v>
+        <v>0.1335275354265091</v>
       </c>
       <c r="C100">
-        <v>0.03681061515953422</v>
+        <v>0.04873867197992051</v>
       </c>
       <c r="D100">
-        <v>-0.3923053631311249</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3558165186545799</v>
+      </c>
+      <c r="E100">
+        <v>-0.8819558171510348</v>
+      </c>
+      <c r="F100">
+        <v>-0.1610340395261788</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02611025570200653</v>
+        <v>0.02868353806162708</v>
       </c>
       <c r="C101">
-        <v>-0.01003895679463179</v>
+        <v>-0.009240954536644849</v>
       </c>
       <c r="D101">
-        <v>-0.02858705366322916</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02935494953128682</v>
+      </c>
+      <c r="E101">
+        <v>0.0170888263501747</v>
+      </c>
+      <c r="F101">
+        <v>-0.01413774214814735</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
